--- a/InputData/elec/TCAMRB/Trans Cap Across Modeled Region Border.xlsx
+++ b/InputData/elec/TCAMRB/Trans Cap Across Modeled Region Border.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\TCAMRB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\elec\TCAMRB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3A18C4E-C561-4AFB-A636-BD195FFB0CA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="23955" windowHeight="12855"/>
+    <workbookView xWindow="46770" yWindow="315" windowWidth="10350" windowHeight="14505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations" sheetId="2" r:id="rId2"/>
     <sheet name="EIA Table 2.13" sheetId="3" r:id="rId3"/>
-    <sheet name="TCAMRB" sheetId="4" r:id="rId4"/>
+    <sheet name="Texas Notes" sheetId="5" r:id="rId4"/>
+    <sheet name="TCAMRB" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>TCAMRB Transmission Capacity Across Modeled Region Border</t>
   </si>
@@ -159,13 +171,59 @@
   </si>
   <si>
     <t>Transmission Capacity Across Modeled Region Border (MW)</t>
+  </si>
+  <si>
+    <t>We take the Texas numbers from their calculations tab:</t>
+  </si>
+  <si>
+    <t>Here's a 2016 ERCOT source that confirms the three ERCOT DC-ties</t>
+  </si>
+  <si>
+    <t>http://www.ercot.com/content/wcm/lists/161158/ERCOT_Fundamentals_Manual.pdf</t>
+  </si>
+  <si>
+    <t>Here's a 2018 report that adds a bit more detail</t>
+  </si>
+  <si>
+    <t>https://www.eba-net.org/assets/1/6/Colorado_FINAL.pdf</t>
+  </si>
+  <si>
+    <t>This source suggests that the El Paso connection is for emergency use only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See figure 1: (copied from a 2016 source: Robert Mullin, Mexico’s Grid Operator to Explore Participation in EIM fig. 1, RTO INSIDER (Oct.
+18, 2016), https://www.rtoinsider.com/mexico-cenace-caiso-eim-33082. </t>
+  </si>
+  <si>
+    <t>so we will exclude it here.</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oklaunion</t>
+  </si>
+  <si>
+    <t>https://new.abb.com/systems/hvdc/references/oklaunion</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Monticello</t>
+  </si>
+  <si>
+    <t>file:///C:/Users/tdeet/Downloads/ERCOT-SPP%20Coordination%20Plan%20(1).pdf</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +263,21 @@
       <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -304,10 +377,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -336,6 +410,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -352,7 +432,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,6 +447,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>183172</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>675409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{272A3657-978C-4D73-AAFB-3E2DEE217D9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5818909" y="571500"/>
+          <a:ext cx="7456808" cy="3151909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,6 +574,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +626,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,11 +818,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -742,11 +906,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -898,11 +1062,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -912,43 +1076,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="26.65" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
@@ -1227,15 +1391,15 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1251,14 +1415,193 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676CA3BB-80E6-4B39-846E-154B87AE0816}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16">
+        <v>800</v>
+      </c>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="19">
+        <f>SUM(B7:B9)</f>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="17"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A17" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22">
+        <v>220</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C23" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>600</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27">
+        <f>SUM(B25,B22,B10)</f>
+        <v>1106</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{D31D99C0-A1E8-43D3-80EF-69C9EDF63B74}"/>
+    <hyperlink ref="A16" r:id="rId2" xr:uid="{96672E69-B6F4-4344-AAEB-FD26455C0DDF}"/>
+    <hyperlink ref="C22" r:id="rId3" xr:uid="{38E39016-8FB3-4428-B5DA-B10E6A90F073}"/>
+    <hyperlink ref="C25" r:id="rId4" display="../../../../../../../../Downloads/ERCOT-SPP Coordination Plan (1).pdf" xr:uid="{1F3C86AC-114B-4B73-89B7-59B35514A43E}"/>
+    <hyperlink ref="C23" r:id="rId5" display="../../../../../../../../Downloads/ERCOT-SPP Coordination Plan (1).pdf" xr:uid="{E13D0A17-76EF-4283-AF26-01C5D5D20D8C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <drawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1273,8 +1616,8 @@
         <v>4</v>
       </c>
       <c r="B2" s="13">
-        <f>SUM(Calculations!B8,Calculations!B24)</f>
-        <v>45690.001425423347</v>
+        <f>'Texas Notes'!B27</f>
+        <v>1106</v>
       </c>
     </row>
   </sheetData>
